--- a/Template/Шаблон для загрузки договоров в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки договоров в DirectumRX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src_dev\rx-util-importdata-net-core\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImportData\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Ошибки" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Договоры!$A$1:$U$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Договоры!$A$1:$V$22</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Содержание</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>ИД журнала регистрации</t>
+  </si>
+  <si>
+    <t>Регистрация</t>
   </si>
 </sst>
 </file>
@@ -733,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I1" sqref="F1:I1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -758,14 +761,14 @@
     <col min="15" max="15" width="26.5703125" style="19" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="19" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="13"/>
+    <col min="18" max="19" width="13.42578125" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -820,17 +823,20 @@
       <c r="R1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="V1" s="28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="32"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
@@ -849,11 +855,12 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
-      <c r="S2" s="29"/>
+      <c r="S2" s="10"/>
       <c r="T2" s="29"/>
-      <c r="U2" s="30"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U2" s="29"/>
+      <c r="V2" s="30"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="32"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
@@ -872,11 +879,12 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
-      <c r="S3" s="29"/>
+      <c r="S3" s="10"/>
       <c r="T3" s="29"/>
-      <c r="U3" s="31"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U3" s="29"/>
+      <c r="V3" s="31"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
@@ -895,11 +903,12 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
-      <c r="S4" s="29"/>
+      <c r="S4" s="10"/>
       <c r="T4" s="29"/>
-      <c r="U4" s="31"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U4" s="29"/>
+      <c r="V4" s="31"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
@@ -918,11 +927,12 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
-      <c r="S5" s="29"/>
+      <c r="S5" s="10"/>
       <c r="T5" s="29"/>
-      <c r="U5" s="30"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U5" s="29"/>
+      <c r="V5" s="30"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
@@ -941,11 +951,12 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
-      <c r="S6" s="29"/>
+      <c r="S6" s="10"/>
       <c r="T6" s="29"/>
-      <c r="U6" s="30"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U6" s="29"/>
+      <c r="V6" s="30"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
@@ -964,11 +975,12 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
-      <c r="S7" s="29"/>
+      <c r="S7" s="10"/>
       <c r="T7" s="29"/>
-      <c r="U7" s="30"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U7" s="29"/>
+      <c r="V7" s="30"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -987,11 +999,12 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
-      <c r="S8" s="29"/>
+      <c r="S8" s="10"/>
       <c r="T8" s="29"/>
-      <c r="U8" s="30"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U8" s="29"/>
+      <c r="V8" s="30"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -1010,11 +1023,12 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="29"/>
+      <c r="S9" s="10"/>
       <c r="T9" s="29"/>
-      <c r="U9" s="30"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U9" s="29"/>
+      <c r="V9" s="30"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -1033,11 +1047,12 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
-      <c r="S10" s="29"/>
+      <c r="S10" s="10"/>
       <c r="T10" s="29"/>
-      <c r="U10" s="30"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U10" s="29"/>
+      <c r="V10" s="30"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -1056,11 +1071,12 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
-      <c r="S11" s="29"/>
+      <c r="S11" s="10"/>
       <c r="T11" s="29"/>
-      <c r="U11" s="30"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U11" s="29"/>
+      <c r="V11" s="30"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -1079,11 +1095,12 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="29"/>
+      <c r="S12" s="10"/>
       <c r="T12" s="29"/>
-      <c r="U12" s="30"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U12" s="29"/>
+      <c r="V12" s="30"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -1102,11 +1119,12 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
-      <c r="S13" s="29"/>
+      <c r="S13" s="10"/>
       <c r="T13" s="29"/>
-      <c r="U13" s="30"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U13" s="29"/>
+      <c r="V13" s="30"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -1125,11 +1143,12 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
-      <c r="S14" s="29"/>
+      <c r="S14" s="10"/>
       <c r="T14" s="29"/>
-      <c r="U14" s="30"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" s="29"/>
+      <c r="V14" s="30"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -1148,11 +1167,12 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
-      <c r="S15" s="29"/>
+      <c r="S15" s="10"/>
       <c r="T15" s="29"/>
-      <c r="U15" s="30"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U15" s="29"/>
+      <c r="V15" s="30"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -1171,11 +1191,12 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
-      <c r="S16" s="29"/>
+      <c r="S16" s="10"/>
       <c r="T16" s="29"/>
-      <c r="U16" s="30"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U16" s="29"/>
+      <c r="V16" s="30"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
@@ -1194,11 +1215,12 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
-      <c r="S17" s="29"/>
+      <c r="S17" s="10"/>
       <c r="T17" s="29"/>
-      <c r="U17" s="30"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U17" s="29"/>
+      <c r="V17" s="30"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
@@ -1217,11 +1239,12 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
-      <c r="S18" s="29"/>
+      <c r="S18" s="10"/>
       <c r="T18" s="29"/>
-      <c r="U18" s="30"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U18" s="29"/>
+      <c r="V18" s="30"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
@@ -1240,11 +1263,12 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
-      <c r="S19" s="29"/>
+      <c r="S19" s="10"/>
       <c r="T19" s="29"/>
-      <c r="U19" s="30"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U19" s="29"/>
+      <c r="V19" s="30"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
@@ -1263,11 +1287,12 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
-      <c r="S20" s="29"/>
+      <c r="S20" s="10"/>
       <c r="T20" s="29"/>
-      <c r="U20" s="30"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U20" s="29"/>
+      <c r="V20" s="30"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
@@ -1286,17 +1311,17 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
-      <c r="S21" s="29"/>
       <c r="T21" s="29"/>
-      <c r="U21" s="30"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U21" s="29"/>
+      <c r="V21" s="30"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="L22" s="18"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:U22"/>
+  <autoFilter ref="A1:V22"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
